--- a/WIP/Users/HuyenPT/Tiến độ code.xlsx
+++ b/WIP/Users/HuyenPT/Tiến độ code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -1196,24 +1196,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1259,6 +1259,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,15 +1312,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1617,10 +1617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1659,7 @@
       </c>
       <c r="I3" s="50">
         <f>COUNTIF(K13:K75,"Done")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="19"/>
       <c r="L3" s="54"/>
@@ -1692,7 +1693,7 @@
       </c>
       <c r="I5" s="12">
         <f>COUNTIF(K13:K74, "Not Start")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="19"/>
       <c r="L5" s="54"/>
@@ -1743,7 +1744,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D11" s="74" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12" s="75" t="s">
         <v>5</v>
       </c>
@@ -1769,12 +1770,12 @@
       <c r="K12" s="12"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1797,11 +1798,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1824,11 +1825,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="81" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1853,14 +1854,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>182</v>
       </c>
@@ -1909,7 +1910,7 @@
       </c>
       <c r="L17" s="59"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>181</v>
       </c>
@@ -1935,13 +1936,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="79" t="s">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1952,7 +1953,7 @@
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="81" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="52" t="s">
@@ -1976,46 +1977,46 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="52" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="104"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="102" t="s">
+      <c r="K21" s="105" t="s">
         <v>182</v>
       </c>
       <c r="L21" s="95"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="78"/>
-      <c r="E22" s="77"/>
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="80"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="52" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="105"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="103"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="96"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="52" t="s">
         <v>34</v>
       </c>
@@ -2027,16 +2028,18 @@
       </c>
       <c r="I23" s="47"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" s="59"/>
+      <c r="K23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="52" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="78"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="52" t="s">
         <v>40</v>
       </c>
@@ -2074,13 +2077,15 @@
       <c r="K25" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="L25" s="59"/>
+      <c r="L25" s="14" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="81" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2105,7 +2110,7 @@
       <c r="D27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="77"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2131,7 @@
       <c r="D28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="77"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2147,7 +2152,7 @@
       <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="78"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2165,7 +2170,7 @@
       <c r="L29" s="59"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="85" t="s">
         <v>56</v>
       </c>
@@ -2178,7 +2183,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D31" s="11" t="s">
         <v>60</v>
       </c>
@@ -2226,7 +2231,7 @@
       </c>
       <c r="L32" s="59"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
         <v>66</v>
       </c>
@@ -2247,11 +2252,11 @@
       </c>
       <c r="L33" s="59"/>
     </row>
-    <row r="34" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="D34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="81" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2274,11 +2279,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="77"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="3" t="s">
         <v>71</v>
       </c>
@@ -2299,11 +2304,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D36" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="78"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
@@ -2320,7 +2325,7 @@
       </c>
       <c r="L36" s="59"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D37" s="82" t="s">
         <v>76</v>
       </c>
@@ -2333,11 +2338,11 @@
       <c r="K37" s="27"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="81" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2360,11 +2365,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="77"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="3" t="s">
         <v>82</v>
       </c>
@@ -2387,7 +2392,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="4:12" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:12" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4" t="s">
         <v>88</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4" t="s">
         <v>91</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
@@ -2497,7 +2502,7 @@
       <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="81" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -2520,7 +2525,7 @@
       <c r="D45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="77"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="3" t="s">
         <v>102</v>
       </c>
@@ -2541,7 +2546,7 @@
       <c r="D46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="78"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="3" t="s">
         <v>105</v>
       </c>
@@ -2558,7 +2563,7 @@
       </c>
       <c r="L46" s="59"/>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" s="82" t="s">
         <v>107</v>
       </c>
@@ -2571,7 +2576,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D48" s="4" t="s">
         <v>111</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" s="4" t="s">
         <v>115</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
         <v>118</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" s="74" t="s">
         <v>114</v>
       </c>
@@ -2658,7 +2663,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D52" s="8" t="s">
         <v>121</v>
       </c>
@@ -2669,17 +2674,17 @@
         <v>117</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="13" t="s">
-        <v>183</v>
+      <c r="H52" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="L52" s="66"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8" t="s">
         <v>124</v>
       </c>
@@ -2700,7 +2705,7 @@
       </c>
       <c r="L53" s="66"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="8" t="s">
         <v>125</v>
       </c>
@@ -2721,7 +2726,7 @@
       </c>
       <c r="L54" s="66"/>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -2745,7 +2750,7 @@
       </c>
       <c r="L55" s="66"/>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -2769,7 +2774,7 @@
       </c>
       <c r="L56" s="66"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" s="8" t="s">
         <v>140</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" s="8" t="s">
         <v>144</v>
       </c>
@@ -2926,7 +2931,7 @@
       </c>
       <c r="L62" s="57"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" s="8" t="s">
         <v>157</v>
       </c>
@@ -3043,7 +3048,7 @@
       </c>
       <c r="L67" s="57"/>
     </row>
-    <row r="68" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" s="91" t="s">
         <v>192</v>
       </c>
@@ -3056,17 +3061,17 @@
       <c r="G68" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="H68" s="97" t="s">
+      <c r="H68" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="I68" s="97"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="112" t="s">
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="97" t="s">
         <v>182</v>
       </c>
       <c r="L68" s="94"/>
     </row>
-    <row r="69" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="D69" s="92"/>
       <c r="E69" s="92"/>
       <c r="F69" s="53" t="s">
@@ -3075,13 +3080,13 @@
       <c r="G69" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="113"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="98"/>
       <c r="L69" s="94"/>
     </row>
-    <row r="70" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="92"/>
       <c r="E70" s="92"/>
       <c r="F70" s="53" t="s">
@@ -3090,13 +3095,13 @@
       <c r="G70" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="H70" s="98"/>
-      <c r="I70" s="98"/>
-      <c r="J70" s="98"/>
-      <c r="K70" s="113"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="98"/>
       <c r="L70" s="94"/>
     </row>
-    <row r="71" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" s="92"/>
       <c r="E71" s="92"/>
       <c r="F71" s="53" t="s">
@@ -3105,13 +3110,13 @@
       <c r="G71" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H71" s="98"/>
-      <c r="I71" s="98"/>
-      <c r="J71" s="98"/>
-      <c r="K71" s="113"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="98"/>
       <c r="L71" s="94"/>
     </row>
-    <row r="72" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
       <c r="F72" s="53" t="s">
@@ -3120,13 +3125,13 @@
       <c r="G72" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="114"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="99"/>
       <c r="L72" s="94"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D73" s="8" t="s">
         <v>227</v>
       </c>
@@ -3151,7 +3156,7 @@
       </c>
       <c r="L73" s="57"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" s="8" t="s">
         <v>228</v>
       </c>
@@ -3175,7 +3180,14 @@
       <c r="L74" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="H10:H74"/>
+  <autoFilter ref="H10:H74">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HuyenPT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <dataConsolidate/>
   <mergeCells count="33">
     <mergeCell ref="L68:L72"/>
     <mergeCell ref="L21:L22"/>
@@ -3186,7 +3198,6 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="J68:J72"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E72"/>
@@ -3210,6 +3221,7 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I5">
     <cfRule type="colorScale" priority="1">
@@ -3227,10 +3239,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H38:H46 H23:H29 H31:H36 H20:H21 H13:H18 B13">
       <formula1>$B$13:$B$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73:H74 H52:H68 H49:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73:H74 H49:H50 H52:H68">
       <formula1>$A$55:$A$57</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L58 L26 K23:K68 L24 L50 L48 L34:L35 L38:L39 L41:L43 K73:K74 K13:K21 H3:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K21 H3:H5 K73:K74 K23:K68">
       <formula1>$B$16:$B$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -3279,10 +3291,10 @@
       <c r="I4" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="111"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -3342,7 +3354,7 @@
       <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="109" t="s">
         <v>197</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -3368,7 +3380,7 @@
       <c r="B8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="33" t="s">
         <v>200</v>
       </c>
@@ -3384,7 +3396,7 @@
       <c r="L8" s="39"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="108"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="33" t="s">
         <v>201</v>
       </c>
@@ -3400,7 +3412,7 @@
       <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="112" t="s">
         <v>202</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -3421,7 +3433,7 @@
       <c r="B11" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="110"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="34" t="s">
         <v>209</v>
       </c>
@@ -3538,10 +3550,10 @@
       <c r="H4" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="114"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
